--- a/lab5/subgraph_data.xlsx
+++ b/lab5/subgraph_data.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Clustering Coefficient</t>
+          <t>clustering</t>
         </is>
       </c>
     </row>
